--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_ListView_D2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B94B22-F895-450C-B01B-42B2B930D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FFB9A-8E20-439A-BF73-2C62DD707213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9910" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{79B22D0D-2409-4EC2-B3CC-F342799DAB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>n\a</t>
   </si>
   <si>
-    <t>J02 - J02</t>
-  </si>
-  <si>
     <t>Select Agency Object Group Profile</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve"> PROJECT TYPE PROFILE </t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -610,10 +610,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>25</v>
@@ -756,10 +756,10 @@
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>25</v>
@@ -774,10 +774,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>25</v>
@@ -789,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>25</v>
@@ -807,13 +807,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>25</v>
@@ -825,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>25</v>
